--- a/Интеграция с Directum/SNG_IntegrDirectum/Трудовой договор/ТД_описание_полей_карточки.xlsx
+++ b/Интеграция с Directum/SNG_IntegrDirectum/Трудовой договор/ТД_описание_полей_карточки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\YandexDisk\Work\Галактика\Сургут\Интеграция с Directum\SNG_IntegrDirectum\Трудовой договор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Galaktika\_git\sng\Интеграция с Directum\SNG_IntegrDirectum\Трудовой договор\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEDC4C26-C4AA-49E8-B529-7032F1946C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88F58D-297B-4FE7-B5AC-F511B6D52D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{D94BC3D9-BA8E-4212-9FAF-76C263C67898}"/>
   </bookViews>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>№ п/п</t>
   </si>
@@ -222,6 +219,28 @@
 SPALLSTAFF.CBASET= PERSONS.NREC (ссылка на таб№), SPALLSTAFF.WNOCON=5  
 - Запомнить значение SPALLSTAFF.NREC
 ПРи SPALLSTAFF.CBASET=SPALLSTAFF.NREC, SPALLSTAFF.WNOCON=16  SPALLSTAFF.RESWORD[1]= 32, то передать в параметр true, иначе false</t>
+  </si>
+  <si>
+    <t>Вопросы</t>
+  </si>
+  <si>
+    <t>Сейчас сделал количествво дней между датами</t>
+  </si>
+  <si>
+    <t>передаю "день"</t>
+  </si>
+  <si>
+    <t>ХЗ, что тут вообще выводить
+сейчас пустую строку вывожу</t>
+  </si>
+  <si>
+    <t>Как добраться до EXTERNALASM?</t>
+  </si>
+  <si>
+    <t>вы уверены, что связка на первый этап SPALLSTAFF.CBASET= PERSONS.NREC (ссылка на таб№), SPALLSTAFF.WNOCON=5  , а не APPOINTMENTS.ResComp[1] == SpAllStaff.nRec ? Ведь у PERSONS  может быть несколько приемов на работу…</t>
+  </si>
+  <si>
+    <t>может надо передавать SpAllStaff.nRec , т.е. сам трудовой договор?</t>
   </si>
 </sst>
 </file>
@@ -253,15 +272,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,11 +324,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,6 +367,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7241B7E9-E1E7-424D-9A17-209A591BE58E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,11 +702,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
     <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +723,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -685,8 +743,11 @@
       <c r="E2" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -702,8 +763,11 @@
       <c r="E3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -720,7 +784,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -737,7 +801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="40" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -754,7 +818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -771,7 +835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -787,8 +851,11 @@
       <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -802,8 +869,11 @@
         <v>33</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -818,7 +888,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -834,8 +904,11 @@
       <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -852,7 +925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="70" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -868,8 +941,11 @@
       <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -880,7 +956,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -893,7 +969,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>51</v>
